--- a/electrostatic-interactions/CLR/CLR_electrostatic.xlsx
+++ b/electrostatic-interactions/CLR/CLR_electrostatic.xlsx
@@ -72,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -107,7 +107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -142,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="644">
   <si>
     <t>text</t>
   </si>
@@ -2090,6 +2090,9 @@
   </si>
   <si>
     <t>Barros, Emilia P. | Malmstrom, Robert D. | Nourbakhsh, Kimya | Del Rio, Jason C. | Kornev, Alexandr A.</t>
+  </si>
+  <si>
+    <t>2017</t>
   </si>
 </sst>
 </file>
@@ -3135,10 +3138,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3148,16 +3151,16 @@
     <col min="3" max="3" width="22" style="3" customWidth="1"/>
     <col min="4" max="4" width="51.5703125" style="3" customWidth="1"/>
     <col min="5" max="6" width="45.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="45.5703125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" style="3" customWidth="1"/>
-    <col min="11" max="13" width="39.140625" style="3" customWidth="1"/>
-    <col min="14" max="15" width="42.85546875" style="3" customWidth="1"/>
-    <col min="16" max="17" width="84.28515625" style="3" customWidth="1"/>
+    <col min="7" max="8" width="45.5703125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" style="3" customWidth="1"/>
+    <col min="12" max="14" width="39.140625" style="3" customWidth="1"/>
+    <col min="15" max="16" width="42.85546875" style="3" customWidth="1"/>
+    <col min="17" max="18" width="84.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>336</v>
       </c>
@@ -3180,37 +3183,40 @@
         <v>485</v>
       </c>
       <c r="H1" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="K1" s="17" t="s">
         <v>619</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="L1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>627</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="N1" s="16" t="s">
         <v>628</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="O1" s="16" t="s">
         <v>458</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="P1" s="16" t="s">
         <v>449</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="Q1" s="16" t="s">
         <v>481</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="R1" s="23" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="165" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="165" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>630</v>
       </c>
@@ -3230,38 +3236,41 @@
         <v>632</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>632</v>
+        <v>643</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>632</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>641</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid value" error="Please select a value from the drop-down list" prompt="Please select a header from the drop-down list" sqref="C1"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3269,7 +3278,7 @@
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="7">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
             <xm:f>'Select-a-header values'!$A$1:$A$7</xm:f>
@@ -3286,19 +3295,19 @@
           <x14:formula1>
             <xm:f>'Select-a-header values'!$D$1:$D$6</xm:f>
           </x14:formula1>
-          <xm:sqref>G1</xm:sqref>
+          <xm:sqref>G1:H1</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
             <xm:f>'Select-a-header values'!$G$1:$G$17</xm:f>
           </x14:formula1>
-          <xm:sqref>N1:O1</xm:sqref>
+          <xm:sqref>O1:P1</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
             <xm:f>'Select-a-header values'!$I$1:$I$12</xm:f>
           </x14:formula1>
-          <xm:sqref>P1:Q1</xm:sqref>
+          <xm:sqref>Q1:R1</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
@@ -3310,7 +3319,7 @@
           <x14:formula1>
             <xm:f>'Select-a-header values'!$E$1:$E$34</xm:f>
           </x14:formula1>
-          <xm:sqref>K1:M1</xm:sqref>
+          <xm:sqref>L1:N1</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/electrostatic-interactions/CLR/CLR_electrostatic.xlsx
+++ b/electrostatic-interactions/CLR/CLR_electrostatic.xlsx
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="645">
   <si>
     <t>text</t>
   </si>
@@ -2093,6 +2093,9 @@
   </si>
   <si>
     <t>2017</t>
+  </si>
+  <si>
+    <t>Barros, Emilia P; Malmstrom, Robert D; Nourbakhsh, Kimya; Del Rio, Jason C; Kornev, Alexandr A; Taylor, Susan S; Amaro, Rommie E (2017): Data from: Electrostatic interactions as mediators in the allosteric activation of PKA RIalpha. UC San Diego Library Digital Collections. http://doi.org/10.6075/J07D2S2X</t>
   </si>
 </sst>
 </file>
@@ -3138,10 +3141,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3155,12 +3158,12 @@
     <col min="9" max="9" width="14.85546875" style="3" customWidth="1"/>
     <col min="10" max="10" width="15.140625" style="3" customWidth="1"/>
     <col min="11" max="11" width="19.85546875" style="3" customWidth="1"/>
-    <col min="12" max="14" width="39.140625" style="3" customWidth="1"/>
-    <col min="15" max="16" width="42.85546875" style="3" customWidth="1"/>
-    <col min="17" max="18" width="84.28515625" style="3" customWidth="1"/>
+    <col min="12" max="15" width="39.140625" style="3" customWidth="1"/>
+    <col min="16" max="17" width="42.85546875" style="3" customWidth="1"/>
+    <col min="18" max="19" width="84.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>336</v>
       </c>
@@ -3198,25 +3201,28 @@
         <v>3</v>
       </c>
       <c r="M1" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="N1" s="16" t="s">
         <v>627</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="O1" s="16" t="s">
         <v>628</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="P1" s="16" t="s">
         <v>458</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="Q1" s="16" t="s">
         <v>449</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="R1" s="16" t="s">
         <v>481</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="S1" s="23" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="165" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>630</v>
       </c>
@@ -3251,26 +3257,29 @@
         <v>635</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>641</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid value" error="Please select a value from the drop-down list" prompt="Please select a header from the drop-down list" sqref="C1"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3278,7 +3287,7 @@
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="7">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
             <xm:f>'Select-a-header values'!$A$1:$A$7</xm:f>
@@ -3301,13 +3310,13 @@
           <x14:formula1>
             <xm:f>'Select-a-header values'!$G$1:$G$17</xm:f>
           </x14:formula1>
-          <xm:sqref>O1:P1</xm:sqref>
+          <xm:sqref>P1:Q1</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
             <xm:f>'Select-a-header values'!$I$1:$I$12</xm:f>
           </x14:formula1>
-          <xm:sqref>Q1:R1</xm:sqref>
+          <xm:sqref>R1:S1</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
@@ -3319,7 +3328,7 @@
           <x14:formula1>
             <xm:f>'Select-a-header values'!$E$1:$E$34</xm:f>
           </x14:formula1>
-          <xm:sqref>L1:N1</xm:sqref>
+          <xm:sqref>L1:O1</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
